--- a/kaltia integradores.xlsx
+++ b/kaltia integradores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Integradror</t>
   </si>
@@ -69,6 +69,51 @@
   </si>
   <si>
     <t>Integrador 2</t>
+  </si>
+  <si>
+    <t>David Jara &lt;dvd.jjh@gmail.com&gt;,</t>
+  </si>
+  <si>
+    <t>ferj2gc@gmail.com,</t>
+  </si>
+  <si>
+    <t>ccaballeroo1@gmail.com,</t>
+  </si>
+  <si>
+    <t>nuncamecai_ely@hotmail.com,</t>
+  </si>
+  <si>
+    <t>miriamhdezcortes@hotmail.com,</t>
+  </si>
+  <si>
+    <t>Violeta Vianney Piña Mojica &lt;viannp_4@yahoo.com&gt;,</t>
+  </si>
+  <si>
+    <t>saradimari085@gmail.com</t>
+  </si>
+  <si>
+    <t>4431713702az@gmail.com</t>
+  </si>
+  <si>
+    <t>juan_carlos_tovar_garnica@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jaimonro@hotmail.com</t>
+  </si>
+  <si>
+    <t>fernando</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>rocio</t>
+  </si>
+  <si>
+    <t>jairo</t>
+  </si>
+  <si>
+    <t>miriam</t>
   </si>
 </sst>
 </file>
@@ -84,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -116,11 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,10 +456,13 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
@@ -440,67 +495,118 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kaltia integradores.xlsx
+++ b/kaltia integradores.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Integradror</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>miriam</t>
+  </si>
+  <si>
+    <t>noanswer</t>
+  </si>
+  <si>
+    <t>ocupada va revisar el docto, pendiente</t>
+  </si>
+  <si>
+    <t>presentar planes y promociones de KaltiaServicios</t>
+  </si>
+  <si>
+    <t>revisar los planes y publicidad</t>
+  </si>
+  <si>
+    <t>tiene trabajo, nos va recomendar a nestor</t>
+  </si>
+  <si>
+    <t>tiene trabajo, no ha revisado presentacion</t>
+  </si>
+  <si>
+    <t>Dame chancesito y me comunico contigo</t>
   </si>
 </sst>
 </file>
@@ -129,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,12 +194,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -462,14 +490,15 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -483,15 +512,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>43546</v>
       </c>
       <c r="D3" s="3">
         <v>43553</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -502,8 +534,11 @@
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -511,11 +546,14 @@
         <v>23</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -526,8 +564,11 @@
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -535,11 +576,14 @@
         <v>22</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -550,8 +594,11 @@
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -561,7 +608,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -569,11 +616,14 @@
         <v>19</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -581,11 +631,14 @@
         <v>20</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -595,7 +648,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -604,6 +657,11 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>15550916193</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
